--- a/app/config/tables/sms_example/forms/sms_example/sms_example.xlsx
+++ b/app/config/tables/sms_example/forms/sms_example/sms_example.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\sms_example\forms\sms_example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="563" yWindow="563" windowWidth="25043" windowHeight="15644" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,9 +34,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -65,9 +67,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -84,12 +83,18 @@
   </si>
   <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -140,6 +145,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -467,13 +480,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:3" ht="20.3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,40 +497,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="20.3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -531,26 +547,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17">
+    <row r="1" spans="1:2" ht="20.3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17">
+    <row r="2" spans="1:2" ht="20.3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -568,55 +584,58 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:3" ht="20.3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="17">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>20141011</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="20.3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
